--- a/ENTREGA1/Normalizacao1.xlsx
+++ b/ENTREGA1/Normalizacao1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NÃO NORMALIZADA" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
   <si>
     <t>NUMERO</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>COMENTÁRIO</t>
+  </si>
+  <si>
+    <t>SEXO</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -455,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -488,17 +491,78 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -527,20 +591,487 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -554,6 +1085,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="A6:R21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+  <autoFilter ref="A6:R21"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="NOME" dataDxfId="18"/>
+    <tableColumn id="2" name="CPF" dataDxfId="17"/>
+    <tableColumn id="3" name="EMAIL" dataDxfId="16"/>
+    <tableColumn id="4" name="LOGIN" dataDxfId="15"/>
+    <tableColumn id="5" name="SENHA" dataDxfId="14"/>
+    <tableColumn id="6" name="LINHA" dataDxfId="13"/>
+    <tableColumn id="7" name="CLASSIFICAÇÃO_LINHA" dataDxfId="12"/>
+    <tableColumn id="8" name="RUA" dataDxfId="11"/>
+    <tableColumn id="9" name="BAIRRO" dataDxfId="10"/>
+    <tableColumn id="10" name="CIDADE" dataDxfId="9"/>
+    <tableColumn id="11" name="CLASSIFICAÇÃO_RUA" dataDxfId="8"/>
+    <tableColumn id="12" name="QUANTIDADE_CRIMES" dataDxfId="7"/>
+    <tableColumn id="13" name="TIPO_CRIME" dataDxfId="6"/>
+    <tableColumn id="14" name="COMENTÁRIO" dataDxfId="5"/>
+    <tableColumn id="15" name="DATA" dataDxfId="4"/>
+    <tableColumn id="16" name="HORA" dataDxfId="3"/>
+    <tableColumn id="17" name="SEXO" dataDxfId="2"/>
+    <tableColumn id="18" name="IDADE" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C7:K17" totalsRowShown="0">
   <autoFilter ref="C7:K17"/>
   <tableColumns count="9">
@@ -571,7 +1129,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="N7:Q17" totalsRowShown="0">
   <autoFilter ref="N7:Q17"/>
   <tableColumns count="4">
@@ -584,7 +1142,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="T7:W17" totalsRowShown="0">
   <autoFilter ref="T7:W17"/>
   <tableColumns count="4">
@@ -597,7 +1155,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="Y7:AD17" totalsRowShown="0">
   <autoFilter ref="Y7:AD17"/>
   <tableColumns count="6">
@@ -612,7 +1170,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="AF7:AJ17" totalsRowShown="0">
   <autoFilter ref="AF7:AJ17"/>
   <tableColumns count="5">
@@ -626,7 +1184,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela18" displayName="Tabela18" ref="E6:M16" totalsRowShown="0">
   <autoFilter ref="E6:M16"/>
   <tableColumns count="9">
@@ -933,7 +1491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -941,119 +1499,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:N10"/>
+  <dimension ref="A6:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="19" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="O6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="23"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="23"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="23"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="23"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1061,7 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
@@ -2549,7 +3382,7 @@
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -2557,7 +3390,7 @@
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -2565,7 +3398,7 @@
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -2573,7 +3406,7 @@
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>4</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -2581,7 +3414,7 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -2589,7 +3422,7 @@
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>6</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -2597,7 +3430,7 @@
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -2605,7 +3438,7 @@
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>8</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -2613,7 +3446,7 @@
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -2621,7 +3454,7 @@
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <v>10</v>
       </c>
       <c r="D14" s="12" t="s">
